--- a/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
@@ -451,323 +451,433 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>006648</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>汇安多因子混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>94.68</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>006649</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>汇安多因子混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>94.68</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.61</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001766</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根医疗健康股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>83.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>010434</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>红土创新医疗保健股票</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>50.44</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.83</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003889</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003890</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>163406</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>兴全合润混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>269.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003889</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合A</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003890</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合C</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>21.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>163406</t>
+          <t>110005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴全合润混合</t>
+          <t>易方达积极成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.13</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6443</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004895</t>
+          <t>002669</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商鑫安灵活配置混合</t>
+          <t>华商万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.13</t>
+          <t>18.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6407</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000541</t>
+          <t>006648</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商创新成长灵活配置混合</t>
+          <t>汇安多因子混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.26</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006648</t>
+          <t>000541</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安多因子混合A</t>
+          <t>华商创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006649</t>
+          <t>004895</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安多因子混合C</t>
+          <t>华商鑫安灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2813</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>110005</t>
+          <t>006649</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达积极成长混合</t>
+          <t>汇安多因子混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>75.51</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519692</t>
+          <t>002514</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>交银成长混合A</t>
+          <t>招商丰益灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>35.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>002581</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>招商丰凯灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002514</t>
+          <t>003889</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合A</t>
+          <t>汇安丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>35.64</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002515</t>
+          <t>002582</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合C</t>
+          <t>招商丰凯灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>35.64</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002581</t>
+          <t>002515</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>招商丰凯灵活配置混合A</t>
+          <t>招商丰益灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>38.98</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>35.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002582</t>
+          <t>005444</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商丰凯灵活配置混合C</t>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>38.98</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005444</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>75.95</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002669</t>
+          <t>003890</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华商万众创新灵活配置混合</t>
+          <t>汇安丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>85.48</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2360,4 +2361,1540 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>287.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.5535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>265.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.9604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9730</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5542</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3897,4 +3898,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3906,7 +3907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3917,17 +3918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3937,14 +3958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.37</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3953,14 +3996,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.88</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>276.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.0486</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3969,14 +4034,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.4</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3985</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3985,13 +4072,2353 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6824</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3851</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2602</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9238</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7474</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6869</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6087</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6064</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4604</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6317,7 +6318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6328,17 +6329,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6348,14 +6369,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.47</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>271.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6364,14 +6407,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.37</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>207.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6380,14 +6445,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.88</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0069</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6396,14 +6483,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.4</v>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6412,13 +6521,2065 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3348</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6658</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6391</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4580</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3348</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013956</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013957</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8462,7 +8463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8473,17 +8474,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8493,14 +8514,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.02</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8509,14 +8552,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.47</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>224.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2884</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8525,14 +8590,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.37</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -8541,14 +8628,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.88</v>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2829</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8557,14 +8666,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.4</v>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4231</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -8573,13 +8704,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>21.69</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>32.02</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>38.47</v>
+        <v>32.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>27.37</v>
+        <v>38.47</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>14.88</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>16.4</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.16</v>
       </c>
     </row>
@@ -600,6 +617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>252.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3692</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3521,7 +4202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5931,7 +6612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7467,7 +8148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8245,7 +8926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8947,7 +9628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603707-健友股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>17.62</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>21.69</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>32.02</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>38.47</v>
+        <v>32.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>27.37</v>
+        <v>38.47</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>14.88</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>16.4</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,466 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1070,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>268.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>179.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6998</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5098</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3667</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +2359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +3137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4202,7 +5281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6612,7 +7691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8148,7 +9227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8926,7 +10005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9626,440 +10705,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.1243</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.1243</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.3324</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4432</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001766</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根医疗健康股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5191</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006648</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇安多因子混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15.35</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4006</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006649</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇安多因子混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1005</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003889</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0943</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003890</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>50.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>